--- a/Scores.xlsx
+++ b/Scores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabrielle Didelot\Documents\3A Centrale\OSY\DaC\income_prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74157D57-F6B6-4FA3-9C71-5317EDC04867}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12BED7A7-2105-4685-A647-C13587E723A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8220" xr2:uid="{2970B74D-8929-47E5-BB6C-BB78B67BC1CF}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="36">
   <si>
     <t>Colonnes prises en compte (oui/non)</t>
   </si>
@@ -132,6 +132,12 @@
   </si>
   <si>
     <t>Private/Self/Public</t>
+  </si>
+  <si>
+    <t>shuffle</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -196,23 +202,39 @@
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -522,146 +544,150 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{324DD0BF-F1B0-4DAD-851B-5231C4A2C3EF}">
-  <dimension ref="A1:V20"/>
+  <dimension ref="A1:W20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" customWidth="1"/>
-    <col min="17" max="17" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.33203125" customWidth="1"/>
+    <col min="18" max="18" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="5" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="6" t="s">
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="P2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="Q2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="R2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="S2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="T2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="T2" s="7" t="s">
+      <c r="U2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="7" t="s">
+      <c r="V2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="V2" s="7" t="s">
+      <c r="W2" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
         <v>18</v>
       </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
       <c r="D3" t="s">
         <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
         <v>20</v>
@@ -673,11 +699,11 @@
         <v>20</v>
       </c>
       <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
         <v>21</v>
       </c>
-      <c r="J3" t="s">
-        <v>20</v>
-      </c>
       <c r="K3" t="s">
         <v>20</v>
       </c>
@@ -688,36 +714,39 @@
         <v>20</v>
       </c>
       <c r="N3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" t="s">
         <v>22</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>120</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>24</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="R3" s="1">
         <v>0.79239999999999999</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>0.52329999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
         <v>20</v>
@@ -729,11 +758,11 @@
         <v>20</v>
       </c>
       <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" t="s">
         <v>21</v>
       </c>
-      <c r="J4" t="s">
-        <v>20</v>
-      </c>
       <c r="K4" t="s">
         <v>20</v>
       </c>
@@ -744,36 +773,39 @@
         <v>20</v>
       </c>
       <c r="N4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O4" t="s">
         <v>22</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>120</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="R4" s="1">
         <v>0.80210000000000004</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>0.53439999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
@@ -785,13 +817,13 @@
         <v>20</v>
       </c>
       <c r="I5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" t="s">
         <v>21</v>
       </c>
-      <c r="J5" t="s">
-        <v>19</v>
-      </c>
       <c r="K5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L5" t="s">
         <v>20</v>
@@ -800,36 +832,39 @@
         <v>20</v>
       </c>
       <c r="N5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O5" t="s">
         <v>22</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>120</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>24</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="R5" s="1">
         <v>0.80330000000000001</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>0.52939999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F6" t="s">
         <v>20</v>
@@ -841,13 +876,13 @@
         <v>20</v>
       </c>
       <c r="I6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J6" t="s">
         <v>19</v>
       </c>
       <c r="K6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L6" t="s">
         <v>20</v>
@@ -856,36 +891,39 @@
         <v>20</v>
       </c>
       <c r="N6" t="s">
-        <v>19</v>
-      </c>
-      <c r="O6">
+        <v>20</v>
+      </c>
+      <c r="O6" t="s">
+        <v>19</v>
+      </c>
+      <c r="P6">
         <v>120</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>24</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="R6" s="1">
         <v>0.80279999999999996</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>0.53190000000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
         <v>18</v>
       </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F7" t="s">
         <v>20</v>
@@ -897,11 +935,11 @@
         <v>20</v>
       </c>
       <c r="I7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" t="s">
         <v>21</v>
       </c>
-      <c r="J7" t="s">
-        <v>20</v>
-      </c>
       <c r="K7" t="s">
         <v>20</v>
       </c>
@@ -912,52 +950,55 @@
         <v>20</v>
       </c>
       <c r="N7" t="s">
+        <v>20</v>
+      </c>
+      <c r="O7" t="s">
         <v>22</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>120</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>29</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="R7" s="1">
         <v>0.80579999999999996</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>0.53039999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
         <v>18</v>
       </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" t="s">
         <v>30</v>
       </c>
-      <c r="G8" t="s">
-        <v>20</v>
-      </c>
       <c r="H8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" t="s">
         <v>21</v>
       </c>
-      <c r="J8" t="s">
-        <v>20</v>
-      </c>
       <c r="K8" t="s">
         <v>20</v>
       </c>
@@ -968,42 +1009,45 @@
         <v>20</v>
       </c>
       <c r="N8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O8" t="s">
         <v>22</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>200</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>31</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="R8" s="1">
         <v>0.80210000000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" t="s">
         <v>30</v>
       </c>
-      <c r="G9" t="s">
-        <v>20</v>
-      </c>
       <c r="H9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I9" t="s">
         <v>19</v>
@@ -1012,7 +1056,7 @@
         <v>19</v>
       </c>
       <c r="K9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L9" t="s">
         <v>20</v>
@@ -1021,42 +1065,45 @@
         <v>20</v>
       </c>
       <c r="N9" t="s">
-        <v>19</v>
-      </c>
-      <c r="O9">
+        <v>20</v>
+      </c>
+      <c r="O9" t="s">
+        <v>19</v>
+      </c>
+      <c r="P9">
         <v>120</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>0.1</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="R9" s="1">
         <v>0.79</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
         <v>18</v>
       </c>
-      <c r="C10" t="s">
-        <v>20</v>
-      </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" t="s">
         <v>30</v>
       </c>
-      <c r="G10" t="s">
-        <v>20</v>
-      </c>
       <c r="H10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I10" t="s">
         <v>19</v>
@@ -1065,7 +1112,7 @@
         <v>19</v>
       </c>
       <c r="K10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L10" t="s">
         <v>20</v>
@@ -1074,49 +1121,52 @@
         <v>20</v>
       </c>
       <c r="N10" t="s">
-        <v>19</v>
-      </c>
-      <c r="O10">
+        <v>20</v>
+      </c>
+      <c r="O10" t="s">
+        <v>19</v>
+      </c>
+      <c r="P10">
         <v>120</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>0.1</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="R10" s="1">
         <v>0.79649999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
         <v>18</v>
       </c>
-      <c r="C11" t="s">
-        <v>20</v>
-      </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" t="s">
         <v>32</v>
       </c>
-      <c r="G11" t="s">
-        <v>20</v>
-      </c>
       <c r="H11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" t="s">
         <v>21</v>
       </c>
-      <c r="J11" t="s">
-        <v>20</v>
-      </c>
       <c r="K11" t="s">
         <v>20</v>
       </c>
@@ -1127,49 +1177,52 @@
         <v>20</v>
       </c>
       <c r="N11" t="s">
+        <v>20</v>
+      </c>
+      <c r="O11" t="s">
         <v>22</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>120</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>0.1</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="R11" s="1">
         <v>0.80100000000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
         <v>18</v>
       </c>
-      <c r="C12" t="s">
-        <v>20</v>
-      </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" t="s">
         <v>32</v>
       </c>
-      <c r="G12" t="s">
-        <v>20</v>
-      </c>
       <c r="H12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I12" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" t="s">
         <v>21</v>
       </c>
-      <c r="J12" t="s">
-        <v>20</v>
-      </c>
       <c r="K12" t="s">
         <v>20</v>
       </c>
@@ -1180,52 +1233,55 @@
         <v>20</v>
       </c>
       <c r="N12" t="s">
+        <v>20</v>
+      </c>
+      <c r="O12" t="s">
         <v>22</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>120</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>29</v>
       </c>
-      <c r="Q12" s="1">
+      <c r="R12" s="1">
         <v>0.79779999999999995</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>0.51919999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C13" t="s">
-        <v>20</v>
-      </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" t="s">
         <v>32</v>
       </c>
-      <c r="G13" t="s">
-        <v>20</v>
-      </c>
       <c r="H13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I13" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" t="s">
         <v>21</v>
       </c>
-      <c r="J13" t="s">
-        <v>20</v>
-      </c>
       <c r="K13" t="s">
         <v>20</v>
       </c>
@@ -1236,104 +1292,311 @@
         <v>20</v>
       </c>
       <c r="N13" t="s">
+        <v>20</v>
+      </c>
+      <c r="O13" t="s">
         <v>22</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>120</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>0.1</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="R13" s="1">
         <v>0.80210000000000004</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>0.52929999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>35</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="F14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" t="s">
+        <v>21</v>
+      </c>
+      <c r="K14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" t="s">
+        <v>20</v>
+      </c>
+      <c r="M14" t="s">
+        <v>20</v>
+      </c>
+      <c r="N14" t="s">
+        <v>20</v>
+      </c>
+      <c r="O14" t="s">
+        <v>22</v>
+      </c>
+      <c r="P14">
+        <v>260</v>
+      </c>
+      <c r="Q14">
+        <v>0.1</v>
+      </c>
+      <c r="R14" s="1">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="S14">
+        <v>0.52749999999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>35</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>33</v>
       </c>
       <c r="D15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="F15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15" t="s">
+        <v>20</v>
+      </c>
+      <c r="M15" t="s">
+        <v>20</v>
+      </c>
+      <c r="N15" t="s">
+        <v>20</v>
+      </c>
+      <c r="O15" t="s">
+        <v>22</v>
+      </c>
+      <c r="P15">
+        <v>200</v>
+      </c>
+      <c r="Q15">
+        <v>0.1</v>
+      </c>
+      <c r="R15" s="1">
+        <v>0.80049999999999999</v>
+      </c>
+      <c r="S15">
+        <v>0.53095000000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>20</v>
       </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
       <c r="D16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="F16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" t="s">
+        <v>19</v>
+      </c>
+      <c r="J16" t="s">
+        <v>21</v>
+      </c>
+      <c r="K16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M16" t="s">
+        <v>20</v>
+      </c>
+      <c r="N16" t="s">
+        <v>20</v>
+      </c>
+      <c r="O16" t="s">
+        <v>22</v>
+      </c>
+      <c r="P16">
+        <v>200</v>
+      </c>
+      <c r="Q16">
+        <v>0.1</v>
+      </c>
+      <c r="R16" s="1">
+        <v>0.84850000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>20</v>
       </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>33</v>
+      </c>
       <c r="D17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" t="s">
-        <v>19</v>
+        <v>19</v>
+      </c>
+      <c r="F17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" t="s">
+        <v>19</v>
+      </c>
+      <c r="J17" t="s">
+        <v>21</v>
+      </c>
+      <c r="K17" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" t="s">
+        <v>20</v>
+      </c>
+      <c r="M17" t="s">
+        <v>20</v>
+      </c>
+      <c r="N17" t="s">
+        <v>20</v>
+      </c>
+      <c r="O17" t="s">
+        <v>22</v>
+      </c>
+      <c r="P17">
+        <v>300</v>
+      </c>
+      <c r="Q17">
+        <v>0.5</v>
+      </c>
+      <c r="R17" s="1">
+        <v>0.85209999999999997</v>
+      </c>
+      <c r="S17">
+        <v>0.66510000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>20</v>
       </c>
       <c r="E18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" t="s">
-        <v>19</v>
+        <v>19</v>
+      </c>
+      <c r="F18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>20</v>
       </c>
       <c r="E19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" t="s">
-        <v>19</v>
+        <v>19</v>
+      </c>
+      <c r="F19" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>20</v>
       </c>
       <c r="E20" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="F20" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="O1:R1"/>
-    <mergeCell ref="S1:V1"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="A1:O1"/>
   </mergeCells>
+  <conditionalFormatting sqref="R1:R1048576">
+    <cfRule type="top10" dxfId="2" priority="2" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S1:S1048576">
+    <cfRule type="top10" dxfId="0" priority="1" rank="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
